--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/15/seed1/result_data_RandomForest.xlsx
@@ -499,13 +499,13 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.595200000000003</v>
+        <v>4.748900000000003</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.157800000000002</v>
+        <v>-8.2605</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.6089</v>
+        <v>-8.696399999999997</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -533,7 +533,7 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>9.129200000000004</v>
+        <v>9.454000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.586999999999998</v>
+        <v>6.510799999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.450599999999998</v>
+        <v>-8.409899999999999</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -703,13 +703,13 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>8.416500000000006</v>
+        <v>8.626300000000008</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.2578</v>
+        <v>-8.3622</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.680599999999998</v>
+        <v>5.638599999999997</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.052899999999996</v>
+        <v>-8.073899999999998</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
